--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
@@ -40,7 +40,7 @@
     <t>MCM-UA-1-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Top Level</t>

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="420">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -331,25 +331,25 @@
     <t>cmip6.toplevel.key_properties.software_properties.coupler</t>
   </si>
   <si>
-    <t>OASIS</t>
-  </si>
-  <si>
-    <t>OASIS3-MCT</t>
-  </si>
-  <si>
-    <t>ESMF</t>
-  </si>
-  <si>
-    <t>NUOPC</t>
-  </si>
-  <si>
-    <t>Bespoke</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>OASIS: The OASIS coupler - prior to OASIS-MCT</t>
+  </si>
+  <si>
+    <t>OASIS3-MCT: The MCT variant of the OASIS coupler</t>
+  </si>
+  <si>
+    <t>ESMF: Vanilla Earth System Modelling Framework</t>
+  </si>
+  <si>
+    <t>NUOPC: National Unified Operational Prediction Capability variant of ESMF</t>
+  </si>
+  <si>
+    <t>Bespoke: Customised coupler developed for this model</t>
+  </si>
+  <si>
+    <t>Unknown: It is not known what/if-a coupler is used</t>
+  </si>
+  <si>
+    <t>None: No coupler is used</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -757,22 +757,22 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CO2.provision</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>N/A: Not applicable - forcing agent is not included</t>
+  </si>
+  <si>
+    <t>M: Emissions and concentrations determined by the model state rather than externally prescribed</t>
+  </si>
+  <si>
+    <t>Y: Prescribed concentrations, distributions or time series data</t>
+  </si>
+  <si>
+    <t>E: Concentrations calculated interactively driven by prescribed emissions or precursor emissions</t>
+  </si>
+  <si>
+    <t>ES: Surface emissions (and 3-D concentrations away from the surface) derived via the model from the prescribed surface concentration</t>
+  </si>
+  <si>
+    <t>C: Fixed prescribed climatology of concentrations with no year-to-year variability</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.2.2 </t>
@@ -898,13 +898,16 @@
     <t>cmip6.toplevel.radiative_forcings.greenhouse_gases.CFC.equivalence_concentration</t>
   </si>
   <si>
-    <t>Option 1</t>
-  </si>
-  <si>
-    <t>Option 2</t>
-  </si>
-  <si>
-    <t>Option 3</t>
+    <t>N/A: Not applicabale (CFCs not included or emissions and concentrations determined by the model state)</t>
+  </si>
+  <si>
+    <t>Option 1: CFCs, including CFC-12, are provided as actual concentrations</t>
+  </si>
+  <si>
+    <t>Option 2: CFC-12 is provided as actual concentrations and any other gases are provided as an equivalence concentration of CFC-11</t>
+  </si>
+  <si>
+    <t>Option 3: Ozone depleting gases, including CFC-12, are provided as an equivalence concentration of CFC-12 and all other fluorinated gases are provided as an equivalence concentration of HFC-134a</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.7.3 </t>
@@ -1117,19 +1120,19 @@
     <t>cmip6.toplevel.radiative_forcings.aerosols.tropospheric_volcanic.historical_explosive_volcanic_aerosol_implementation</t>
   </si>
   <si>
-    <t>Type A</t>
-  </si>
-  <si>
-    <t>Type B</t>
-  </si>
-  <si>
-    <t>Type C</t>
-  </si>
-  <si>
-    <t>Type D</t>
-  </si>
-  <si>
-    <t>Type E</t>
+    <t>Type A: Explosive volcanic aerosol returns rapidly to zero (or near-zero) background.</t>
+  </si>
+  <si>
+    <t>Type B: Explosive volcanic aerosol returns rapidly to constant (average volcano)</t>
+  </si>
+  <si>
+    <t>Type C: Explosive volcanic aerosol returns slowly (over several decades) to constant (average volcano) background.</t>
+  </si>
+  <si>
+    <t>Type D: Explosive volcanic aerosol set to zero</t>
+  </si>
+  <si>
+    <t>Type E: Explosive volcanic aerosol set to constant (average volcano) background</t>
   </si>
   <si>
     <t>2.1.15.3 *</t>
@@ -1255,16 +1258,19 @@
     <t>cmip6.toplevel.radiative_forcings.other.solar.provision</t>
   </si>
   <si>
-    <t>Irradiance</t>
-  </si>
-  <si>
-    <t>Proton</t>
-  </si>
-  <si>
-    <t>Electron</t>
-  </si>
-  <si>
-    <t>Cosmic ray</t>
+    <t>N/A: Not applicable - solar forcing is not included</t>
+  </si>
+  <si>
+    <t>irradiance: Solar irradiance forcing</t>
+  </si>
+  <si>
+    <t>proton: Proton pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>electron: Electron pathway to solar forcing</t>
+  </si>
+  <si>
+    <t>cosmic ray: Cosmic ray pathway to solar forcing</t>
   </si>
   <si>
     <t xml:space="preserve">2.1.19.2 </t>
@@ -3778,16 +3784,16 @@
     <row r="94" spans="1:33" ht="24" customHeight="1">
       <c r="B94" s="11"/>
       <c r="AA94" s="6" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AE94" s="6" t="s">
         <v>111</v>
@@ -3795,7 +3801,7 @@
     </row>
     <row r="96" spans="1:33" ht="24" customHeight="1">
       <c r="A96" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>253</v>
@@ -3809,7 +3815,7 @@
         <v>254</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="24" customHeight="1">
@@ -3822,20 +3828,20 @@
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
       <c r="A102" s="12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:33" ht="24" customHeight="1">
       <c r="B103" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:33" ht="24" customHeight="1">
       <c r="A105" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>243</v>
@@ -3849,7 +3855,7 @@
         <v>244</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:33" ht="24" customHeight="1">
@@ -3883,7 +3889,7 @@
     </row>
     <row r="110" spans="1:33" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>253</v>
@@ -3897,7 +3903,7 @@
         <v>254</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:33" ht="24" customHeight="1">
@@ -3910,20 +3916,20 @@
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:33" ht="24" customHeight="1">
       <c r="B117" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:33" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>243</v>
@@ -3937,7 +3943,7 @@
         <v>244</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:33" ht="24" customHeight="1">
@@ -3971,7 +3977,7 @@
     </row>
     <row r="124" spans="1:33" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>253</v>
@@ -3985,7 +3991,7 @@
         <v>254</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:33" ht="24" customHeight="1">
@@ -3998,20 +4004,20 @@
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="131" spans="1:33" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:33" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>243</v>
@@ -4025,7 +4031,7 @@
         <v>244</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:33" ht="24" customHeight="1">
@@ -4059,7 +4065,7 @@
     </row>
     <row r="138" spans="1:33" ht="24" customHeight="1">
       <c r="A138" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>253</v>
@@ -4073,7 +4079,7 @@
         <v>254</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:33" ht="24" customHeight="1">
@@ -4086,20 +4092,20 @@
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
       <c r="A144" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:33" ht="24" customHeight="1">
       <c r="B145" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>243</v>
@@ -4113,7 +4119,7 @@
         <v>244</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
@@ -4147,7 +4153,7 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>253</v>
@@ -4161,7 +4167,7 @@
         <v>254</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:33" ht="24" customHeight="1">
@@ -4174,20 +4180,20 @@
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
       <c r="A158" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:33" ht="24" customHeight="1">
       <c r="B159" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:33" ht="24" customHeight="1">
       <c r="A161" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>243</v>
@@ -4201,7 +4207,7 @@
         <v>244</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="163" spans="1:33" ht="24" customHeight="1">
@@ -4235,10 +4241,10 @@
     </row>
     <row r="166" spans="1:33" ht="24" customHeight="1">
       <c r="A166" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:33" ht="24" customHeight="1">
@@ -4246,10 +4252,10 @@
         <v>116</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
@@ -4257,7 +4263,7 @@
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>253</v>
@@ -4271,7 +4277,7 @@
         <v>254</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:33" ht="24" customHeight="1">
@@ -4284,20 +4290,20 @@
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
       <c r="A176" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:33" ht="24" customHeight="1">
       <c r="B177" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="179" spans="1:33" ht="24" customHeight="1">
       <c r="A179" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>243</v>
@@ -4311,7 +4317,7 @@
         <v>244</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:33" ht="24" customHeight="1">
@@ -4345,10 +4351,10 @@
     </row>
     <row r="184" spans="1:33" ht="24" customHeight="1">
       <c r="A184" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:33" ht="24" customHeight="1">
@@ -4356,10 +4362,10 @@
         <v>116</v>
       </c>
       <c r="B185" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
@@ -4367,10 +4373,10 @@
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:33" ht="24" customHeight="1">
@@ -4378,10 +4384,10 @@
         <v>116</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
@@ -4389,7 +4395,7 @@
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>253</v>
@@ -4403,7 +4409,7 @@
         <v>254</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:33" ht="24" customHeight="1">
@@ -4416,20 +4422,20 @@
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
       <c r="A198" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="199" spans="1:33" ht="24" customHeight="1">
       <c r="B199" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="201" spans="1:33" ht="24" customHeight="1">
       <c r="A201" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>243</v>
@@ -4443,7 +4449,7 @@
         <v>244</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="203" spans="1:33" ht="24" customHeight="1">
@@ -4477,7 +4483,7 @@
     </row>
     <row r="206" spans="1:33" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>253</v>
@@ -4491,7 +4497,7 @@
         <v>254</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="1:33" ht="24" customHeight="1">
@@ -4504,20 +4510,20 @@
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
       <c r="A212" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="213" spans="1:33" ht="24" customHeight="1">
       <c r="B213" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215" spans="1:33" ht="24" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>243</v>
@@ -4531,7 +4537,7 @@
         <v>244</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="217" spans="1:33" ht="24" customHeight="1">
@@ -4565,10 +4571,10 @@
     </row>
     <row r="220" spans="1:33" ht="24" customHeight="1">
       <c r="A220" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="221" spans="1:33" ht="24" customHeight="1">
@@ -4576,28 +4582,28 @@
         <v>101</v>
       </c>
       <c r="B221" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:33" ht="24" customHeight="1">
       <c r="B222" s="11"/>
       <c r="AA222" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB222" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC222" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD222" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE222" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF222" s="6" t="s">
         <v>111</v>
@@ -4605,10 +4611,10 @@
     </row>
     <row r="224" spans="1:33" ht="24" customHeight="1">
       <c r="A224" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:33" ht="24" customHeight="1">
@@ -4616,28 +4622,28 @@
         <v>101</v>
       </c>
       <c r="B225" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
       <c r="B226" s="11"/>
       <c r="AA226" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB226" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC226" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD226" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE226" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF226" s="6" t="s">
         <v>111</v>
@@ -4645,7 +4651,7 @@
     </row>
     <row r="228" spans="1:33" ht="24" customHeight="1">
       <c r="A228" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>253</v>
@@ -4659,7 +4665,7 @@
         <v>254</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:33" ht="24" customHeight="1">
@@ -4672,20 +4678,20 @@
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
       <c r="A234" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="235" spans="1:33" ht="24" customHeight="1">
       <c r="B235" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="1:33" ht="24" customHeight="1">
       <c r="A237" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>243</v>
@@ -4699,7 +4705,7 @@
         <v>244</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="239" spans="1:33" ht="24" customHeight="1">
@@ -4733,10 +4739,10 @@
     </row>
     <row r="242" spans="1:32" ht="24" customHeight="1">
       <c r="A242" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="243" spans="1:32" ht="24" customHeight="1">
@@ -4744,28 +4750,28 @@
         <v>101</v>
       </c>
       <c r="B243" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
       <c r="B244" s="11"/>
       <c r="AA244" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB244" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC244" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD244" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE244" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF244" s="6" t="s">
         <v>111</v>
@@ -4773,10 +4779,10 @@
     </row>
     <row r="246" spans="1:32" ht="24" customHeight="1">
       <c r="A246" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="247" spans="1:32" ht="24" customHeight="1">
@@ -4784,28 +4790,28 @@
         <v>101</v>
       </c>
       <c r="B247" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
       <c r="B248" s="11"/>
       <c r="AA248" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB248" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AC248" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD248" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE248" s="6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF248" s="6" t="s">
         <v>111</v>
@@ -4813,7 +4819,7 @@
     </row>
     <row r="250" spans="1:32" ht="24" customHeight="1">
       <c r="A250" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>253</v>
@@ -4827,7 +4833,7 @@
         <v>254</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="252" spans="1:32" ht="24" customHeight="1">
@@ -4840,20 +4846,20 @@
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
       <c r="A256" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="257" spans="1:33" ht="24" customHeight="1">
       <c r="B257" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="259" spans="1:33" ht="24" customHeight="1">
       <c r="A259" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>243</v>
@@ -4867,7 +4873,7 @@
         <v>244</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:33" ht="24" customHeight="1">
@@ -4901,7 +4907,7 @@
     </row>
     <row r="264" spans="1:33" ht="24" customHeight="1">
       <c r="A264" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>253</v>
@@ -4915,7 +4921,7 @@
         <v>254</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="266" spans="1:33" ht="24" customHeight="1">
@@ -4928,20 +4934,20 @@
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
       <c r="A270" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="271" spans="1:33" ht="24" customHeight="1">
       <c r="B271" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="273" spans="1:33" ht="24" customHeight="1">
       <c r="A273" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>243</v>
@@ -4955,7 +4961,7 @@
         <v>244</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="275" spans="1:33" ht="24" customHeight="1">
@@ -4989,10 +4995,10 @@
     </row>
     <row r="278" spans="1:33" ht="24" customHeight="1">
       <c r="A278" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="279" spans="1:33" ht="24" customHeight="1">
@@ -5000,10 +5006,10 @@
         <v>116</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
@@ -5011,7 +5017,7 @@
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>253</v>
@@ -5025,7 +5031,7 @@
         <v>254</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="284" spans="1:33" ht="24" customHeight="1">
@@ -5038,20 +5044,20 @@
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
       <c r="A288" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B288" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:32" ht="24" customHeight="1">
       <c r="B289" s="13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:32" ht="24" customHeight="1">
       <c r="A291" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>243</v>
@@ -5062,10 +5068,10 @@
         <v>101</v>
       </c>
       <c r="B292" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="293" spans="1:32" ht="24" customHeight="1">
@@ -5076,19 +5082,19 @@
     <row r="294" spans="1:32" ht="24" customHeight="1">
       <c r="B294" s="11"/>
       <c r="AA294" s="6" t="s">
-        <v>246</v>
+        <v>413</v>
       </c>
       <c r="AB294" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AC294" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AD294" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AE294" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF294" s="6" t="s">
         <v>111</v>
@@ -5096,7 +5102,7 @@
     </row>
     <row r="296" spans="1:32" ht="24" customHeight="1">
       <c r="A296" s="9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>253</v>
@@ -5110,7 +5116,7 @@
         <v>254</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="298" spans="1:32" ht="24" customHeight="1">

--- a/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
+++ b/cmip6/models/mcm-ua-1-0/cmip6_ua_mcm-ua-1-0_toplevel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron\Documents\WPDocs\CMIP6_variable_tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF2708F-6A80-40F2-ACE7-EEE015CB8268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
     <sheet name="2. Radiative Forcings" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="460">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1277,13 +1290,133 @@
   </si>
   <si>
     <t>cmip6.toplevel.radiative_forcings.other.solar.additional_information</t>
+  </si>
+  <si>
+    <t>MCM_UA</t>
+  </si>
+  <si>
+    <t>AOGCM</t>
+  </si>
+  <si>
+    <t>R30 spectral atmosphere coupled to MOM1 ocean using simple Manabe land model and simple Bryan sea ice model.</t>
+  </si>
+  <si>
+    <t>Flux adjustments are used. The fluxes are not corrected in any way. The flux adjustments are intended to keep SST and SSS realistic.  The flux adjustments are computed in 2 steps. First and atmosphere-only model is run to equilibrium (about 20 years). The surface fluxes are archived (monthly averages). Step 2 the fluxes from step 1 are input to an ocean only model which is also run to equilibrium (about 4000 model years). The SST and SSS in the ocean model are restored towards observations using a Haney type restoring. The time averages of the restoring terms at equilibrium are the flux adjustments used in the AOGCM.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>GFDL climate model</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>FORTRAN 77</t>
+  </si>
+  <si>
+    <t>atmosphere-land coupled to ocean-sea ice model. The coupler conserves heat and water written by Stouffer in 1985.</t>
+  </si>
+  <si>
+    <t>None. Flux adjustments used.</t>
+  </si>
+  <si>
+    <t>Flux adjustments</t>
+  </si>
+  <si>
+    <t>atmosphere - ocean components conserve as does the coupler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two ocean grid boxes underly each atmosphere grid box. Land-sea boundary set by atmosphere grid. Atmosphere flux from each grid atm grid box is passed to both ocean-sea ice boxes underlying it. </t>
+  </si>
+  <si>
+    <t>Land has no heat capacity.</t>
+  </si>
+  <si>
+    <t>No heat is exchanged between the land and ocean. Just water which has no temperature.</t>
+  </si>
+  <si>
+    <t>Manabe bucket model.</t>
+  </si>
+  <si>
+    <t>Snowfall is added to snow depth. If surface temperature exceeds 0C, snow melts. No snow on sea ice.</t>
+  </si>
+  <si>
+    <t>equivalent CO2 used.</t>
+  </si>
+  <si>
+    <t>volcanic forcing represented by solar constnat changes.</t>
+  </si>
+  <si>
+    <t>volcanic forcing represented by solar constant changes</t>
+  </si>
+  <si>
+    <t>Ronald J Stouffer</t>
+  </si>
+  <si>
+    <t>Delworth_R30_2002</t>
+  </si>
+  <si>
+    <t>Dixon_R30_2002</t>
+  </si>
+  <si>
+    <t>Lindberg_topo_1996</t>
+  </si>
+  <si>
+    <t>Manabe_coupling_1991</t>
+  </si>
+  <si>
+    <t>AO_Coupling_1969</t>
+  </si>
+  <si>
+    <t>FluxAdj_1988</t>
+  </si>
+  <si>
+    <t>atmosphere - ocean components conserve as does the coupler. The coupler does no interpolations. Two ocean-sea ice grid boxes (east-west) lie underneath 1 atmosphere-land grid box - exactly. Fluxes into ocean-sea ice are split into two and passed to each ocean box. SST is averaged and passed up to atmosphere box.</t>
+  </si>
+  <si>
+    <t>Two ocean grid boxes underly each atmosphere grid box. Land-sea boundary set by atmosphere grid. Atmosphere flux from each grid atm grid box is passed to both ocean-sea ice boxes underlying it. Sea ice thickness is averaged and passed up to atmosphere box.</t>
+  </si>
+  <si>
+    <t>Freezing is set to -2C. If ocean temperature drops below -2C, sea ice is formed. No sensible heat storage in sea ice. They are on same grid exactly. No conservation issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two ocean grid boxes underly each atmosphere grid box. Land-sea boundary set by atmosphere grid. Atmosphere flux from each  atmosphere grid box is passed to both ocean-sea ice boxes underlying it. </t>
+  </si>
+  <si>
+    <t>Manabe bucket model is used (Manabe 1969). Runoff is routed to ocean via a realistic river network. Land and atmosphere use same grid exactly.</t>
+  </si>
+  <si>
+    <t>All frozen water is added to sea ice thickness. See above.</t>
+  </si>
+  <si>
+    <t>Freezing/melt is taken from/added to SSS. See above.</t>
+  </si>
+  <si>
+    <t>Snow depth is not allowed to exceed 20 cm water equivalent. Any snow depth greater than 20 cm is sent to ocean as a frozen water flux using the river network.</t>
+  </si>
+  <si>
+    <t>Two ocean grid boxes underly each atmosphere grid box. Land-sea boundary set by atmosphere grid. Atmosphere flux from each grid atm grid box is passed to both ocean-sea ice boxes underlying it.  Virtual salt flux formulation.</t>
+  </si>
+  <si>
+    <t>Equivalent CO2 used to represent radiative forcing of GHG except water vapor. Two time period aerosol concentration distributions specified (1985 and 2050). Also given is the total globally averaged aerosol optical depth. To find any given year, the ratio of the global averages and weighting in time fo the map time periods was performed. To convert the interpolated aerosol value into a forcing, the surface albedos were modified using the Haywood et al. method. Volcanoes were represented as a change in the solar constant. Solar changes also changed the solar constant.</t>
+  </si>
+  <si>
+    <t>Haywood_aerosol_1997</t>
+  </si>
+  <si>
+    <t>Haywood et al. 1997</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,6 +1517,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1417,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1425,11 +1565,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1473,12 +1641,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1525,7 +1707,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1557,9 +1739,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,6 +1791,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,10 +1984,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1778,12 +1996,12 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1791,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +2017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1807,7 +2025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +2033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1823,12 +2041,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="18">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1836,7 +2054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1844,7 +2062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="18">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +2070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="18">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1860,13 +2078,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -1874,18 +2092,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1894,7 +2114,7 @@
     <col min="3" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -1905,7 +2125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +2141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1929,11 +2149,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="18">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +2171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1957,32 +2179,86 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B23" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Top Level,Key Properties,Radiative Forcings"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD224"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2025,7 +2301,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -2052,7 +2330,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -2078,8 +2358,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B16" s="11" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -2118,8 +2400,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
@@ -2154,7 +2438,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11">
+        <v>1995</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -2176,7 +2462,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -2198,7 +2486,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -2224,8 +2514,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="178" customHeight="1">
-      <c r="B46" s="11"/>
+    <row r="46" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
@@ -2247,7 +2539,9 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="12" t="s">
@@ -2282,7 +2576,9 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
@@ -2304,7 +2600,9 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
@@ -2331,7 +2629,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="69" spans="1:34" ht="24" customHeight="1">
       <c r="A69" s="9" t="s">
@@ -2353,7 +2653,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="73" spans="1:34" ht="24" customHeight="1">
       <c r="A73" s="9" t="s">
@@ -2375,7 +2677,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="AA75" s="6" t="s">
         <v>104</v>
       </c>
@@ -2432,7 +2736,9 @@
       </c>
     </row>
     <row r="83" spans="1:30" ht="24" customHeight="1">
-      <c r="B83" s="11"/>
+      <c r="B83" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:30" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
@@ -2454,7 +2760,9 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="AA87" s="6" t="s">
         <v>123</v>
       </c>
@@ -2488,7 +2796,9 @@
       </c>
     </row>
     <row r="91" spans="1:30" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:30" ht="24" customHeight="1">
       <c r="A94" s="12" t="s">
@@ -2527,8 +2837,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="178" customHeight="1">
-      <c r="B100" s="11"/>
+    <row r="100" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B100" s="11" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
@@ -2555,7 +2867,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
@@ -2582,7 +2896,9 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="B110" s="11"/>
+      <c r="B110" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="9" t="s">
@@ -2631,7 +2947,9 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
-      <c r="B119" s="11"/>
+      <c r="B119" s="11" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="A121" s="9" t="s">
@@ -2653,7 +2971,9 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
-      <c r="B123" s="11"/>
+      <c r="B123" s="11" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="A126" s="12" t="s">
@@ -2692,8 +3012,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="178" customHeight="1">
-      <c r="B132" s="11"/>
+    <row r="132" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B132" s="11" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="9" t="s">
@@ -2719,8 +3041,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="178" customHeight="1">
-      <c r="B137" s="11"/>
+    <row r="137" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B137" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="A139" s="9" t="s">
@@ -2746,8 +3070,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="178" customHeight="1">
-      <c r="B142" s="11"/>
+    <row r="142" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B142" s="11" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="A144" s="9" t="s">
@@ -2773,8 +3099,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="178" customHeight="1">
-      <c r="B147" s="11"/>
+    <row r="147" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B147" s="11" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="A149" s="9" t="s">
@@ -2800,8 +3128,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
-      <c r="B152" s="11"/>
+    <row r="152" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B152" s="11" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="A154" s="9" t="s">
@@ -2827,8 +3157,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="178" customHeight="1">
-      <c r="B157" s="11"/>
+    <row r="157" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B157" s="11" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="12" t="s">
@@ -2867,8 +3199,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="178" customHeight="1">
-      <c r="B166" s="11"/>
+    <row r="166" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B166" s="11" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
       <c r="A168" s="9" t="s">
@@ -2894,8 +3228,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="178" customHeight="1">
-      <c r="B171" s="11"/>
+    <row r="171" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B171" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="24" customHeight="1">
       <c r="A173" s="9" t="s">
@@ -2921,8 +3257,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="178" customHeight="1">
-      <c r="B176" s="11"/>
+    <row r="176" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B176" s="11" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
@@ -2948,8 +3286,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="178" customHeight="1">
-      <c r="B181" s="11"/>
+    <row r="181" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B181" s="11" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="24" customHeight="1">
       <c r="A183" s="9" t="s">
@@ -2975,8 +3315,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="178" customHeight="1">
-      <c r="B186" s="11"/>
+    <row r="186" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B186" s="11" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="188" spans="1:3" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
@@ -3002,8 +3344,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="178" customHeight="1">
-      <c r="B191" s="11"/>
+    <row r="191" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B191" s="11" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="193" spans="1:3" ht="24" customHeight="1">
       <c r="A193" s="9" t="s">
@@ -3029,8 +3373,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="178" customHeight="1">
-      <c r="B196" s="11"/>
+    <row r="196" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B196" s="11" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="24" customHeight="1">
       <c r="A198" s="9" t="s">
@@ -3056,8 +3402,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="178" customHeight="1">
-      <c r="B201" s="11"/>
+    <row r="201" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B201" s="11" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="203" spans="1:3" ht="24" customHeight="1">
       <c r="A203" s="9" t="s">
@@ -3083,8 +3431,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="178" customHeight="1">
-      <c r="B206" s="11"/>
+    <row r="206" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B206" s="11" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="209" spans="1:3" ht="24" customHeight="1">
       <c r="A209" s="12" t="s">
@@ -3123,8 +3473,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="178" customHeight="1">
-      <c r="B215" s="11"/>
+    <row r="215" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B215" s="11" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="218" spans="1:3" ht="24" customHeight="1">
       <c r="A218" s="12" t="s">
@@ -3163,22 +3515,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="178" customHeight="1">
-      <c r="B224" s="11"/>
+    <row r="224" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B224" s="11" t="s">
+        <v>433</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA75:AH75</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83 B91" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>AA87:AD87</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,10 +3537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AG299"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3232,7 +3585,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -3258,8 +3613,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:3" ht="177.95" customHeight="1">
+      <c r="B11" s="11" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -3299,7 +3656,9 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="AA20" s="6" t="s">
         <v>246</v>
       </c>
@@ -3346,8 +3705,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="178" customHeight="1">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="28" spans="1:33" ht="24" customHeight="1">
       <c r="A28" s="12" t="s">
@@ -3387,7 +3748,9 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA34" s="6" t="s">
         <v>246</v>
       </c>
@@ -3434,8 +3797,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="178" customHeight="1">
-      <c r="B39" s="11"/>
+    <row r="39" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B39" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="42" spans="1:33" ht="24" customHeight="1">
       <c r="A42" s="12" t="s">
@@ -3475,7 +3840,9 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA48" s="6" t="s">
         <v>246</v>
       </c>
@@ -3522,8 +3889,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
+    <row r="53" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="56" spans="1:33" ht="24" customHeight="1">
       <c r="A56" s="12" t="s">
@@ -3563,7 +3932,9 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="AA62" s="6" t="s">
         <v>246</v>
       </c>
@@ -3610,8 +3981,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+    <row r="67" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B67" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="70" spans="1:33" ht="24" customHeight="1">
       <c r="A70" s="12" t="s">
@@ -3651,7 +4024,9 @@
       </c>
     </row>
     <row r="76" spans="1:33" ht="24" customHeight="1">
-      <c r="B76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="AA76" s="6" t="s">
         <v>246</v>
       </c>
@@ -3698,8 +4073,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="178" customHeight="1">
-      <c r="B81" s="11"/>
+    <row r="81" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B81" s="11" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="84" spans="1:33" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
@@ -3739,7 +4116,9 @@
       </c>
     </row>
     <row r="90" spans="1:33" ht="24" customHeight="1">
-      <c r="B90" s="11"/>
+      <c r="B90" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA90" s="6" t="s">
         <v>246</v>
       </c>
@@ -3823,7 +4202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="178" customHeight="1">
+    <row r="99" spans="1:33" ht="177.95" customHeight="1">
       <c r="B99" s="11"/>
     </row>
     <row r="102" spans="1:33" ht="24" customHeight="1">
@@ -3864,7 +4243,9 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="24" customHeight="1">
-      <c r="B108" s="11"/>
+      <c r="B108" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="AA108" s="6" t="s">
         <v>246</v>
       </c>
@@ -3911,8 +4292,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="178" customHeight="1">
-      <c r="B113" s="11"/>
+    <row r="113" spans="1:33" ht="177.95" customHeight="1">
+      <c r="B113" s="11" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="116" spans="1:33" ht="24" customHeight="1">
       <c r="A116" s="12" t="s">
@@ -3952,7 +4335,9 @@
       </c>
     </row>
     <row r="122" spans="1:33" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA122" s="6" t="s">
         <v>246</v>
       </c>
@@ -3999,7 +4384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="178" customHeight="1">
+    <row r="127" spans="1:33" ht="177.95" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="130" spans="1:33" ht="24" customHeight="1">
@@ -4040,7 +4425,9 @@
       </c>
     </row>
     <row r="136" spans="1:33" ht="24" customHeight="1">
-      <c r="B136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA136" s="6" t="s">
         <v>246</v>
       </c>
@@ -4087,7 +4474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="178" customHeight="1">
+    <row r="141" spans="1:33" ht="177.95" customHeight="1">
       <c r="B141" s="11"/>
     </row>
     <row r="144" spans="1:33" ht="24" customHeight="1">
@@ -4128,7 +4515,9 @@
       </c>
     </row>
     <row r="150" spans="1:33" ht="24" customHeight="1">
-      <c r="B150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA150" s="6" t="s">
         <v>246</v>
       </c>
@@ -4175,7 +4564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="178" customHeight="1">
+    <row r="155" spans="1:33" ht="177.95" customHeight="1">
       <c r="B155" s="11"/>
     </row>
     <row r="158" spans="1:33" ht="24" customHeight="1">
@@ -4216,7 +4605,9 @@
       </c>
     </row>
     <row r="164" spans="1:33" ht="24" customHeight="1">
-      <c r="B164" s="11"/>
+      <c r="B164" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA164" s="6" t="s">
         <v>246</v>
       </c>
@@ -4259,7 +4650,9 @@
       </c>
     </row>
     <row r="168" spans="1:33" ht="24" customHeight="1">
-      <c r="B168" s="11"/>
+      <c r="B168" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:33" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
@@ -4285,7 +4678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" spans="1:33" ht="178" customHeight="1">
+    <row r="173" spans="1:33" ht="177.95" customHeight="1">
       <c r="B173" s="11"/>
     </row>
     <row r="176" spans="1:33" ht="24" customHeight="1">
@@ -4326,7 +4719,9 @@
       </c>
     </row>
     <row r="182" spans="1:33" ht="24" customHeight="1">
-      <c r="B182" s="11"/>
+      <c r="B182" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA182" s="6" t="s">
         <v>246</v>
       </c>
@@ -4369,7 +4764,9 @@
       </c>
     </row>
     <row r="186" spans="1:33" ht="24" customHeight="1">
-      <c r="B186" s="11"/>
+      <c r="B186" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:33" ht="24" customHeight="1">
       <c r="A188" s="9" t="s">
@@ -4391,7 +4788,9 @@
       </c>
     </row>
     <row r="190" spans="1:33" ht="24" customHeight="1">
-      <c r="B190" s="11"/>
+      <c r="B190" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:33" ht="24" customHeight="1">
       <c r="A192" s="9" t="s">
@@ -4417,7 +4816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="195" spans="1:33" ht="178" customHeight="1">
+    <row r="195" spans="1:33" ht="177.95" customHeight="1">
       <c r="B195" s="11"/>
     </row>
     <row r="198" spans="1:33" ht="24" customHeight="1">
@@ -4458,7 +4857,9 @@
       </c>
     </row>
     <row r="204" spans="1:33" ht="24" customHeight="1">
-      <c r="B204" s="11"/>
+      <c r="B204" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA204" s="6" t="s">
         <v>246</v>
       </c>
@@ -4505,7 +4906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="209" spans="1:33" ht="178" customHeight="1">
+    <row r="209" spans="1:33" ht="177.95" customHeight="1">
       <c r="B209" s="11"/>
     </row>
     <row r="212" spans="1:33" ht="24" customHeight="1">
@@ -4546,7 +4947,12 @@
       </c>
     </row>
     <row r="218" spans="1:33" ht="24" customHeight="1">
-      <c r="B218" s="11"/>
+      <c r="B218" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="AA218" s="6" t="s">
         <v>246</v>
       </c>
@@ -4629,7 +5035,9 @@
       </c>
     </row>
     <row r="226" spans="1:33" ht="24" customHeight="1">
-      <c r="B226" s="11"/>
+      <c r="B226" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="AA226" s="6" t="s">
         <v>367</v>
       </c>
@@ -4673,7 +5081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="1:33" ht="178" customHeight="1">
+    <row r="231" spans="1:33" ht="177.95" customHeight="1">
       <c r="B231" s="11"/>
     </row>
     <row r="234" spans="1:33" ht="24" customHeight="1">
@@ -4714,7 +5122,9 @@
       </c>
     </row>
     <row r="240" spans="1:33" ht="24" customHeight="1">
-      <c r="B240" s="11"/>
+      <c r="B240" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA240" s="6" t="s">
         <v>246</v>
       </c>
@@ -4758,6 +5168,9 @@
     </row>
     <row r="244" spans="1:32" ht="24" customHeight="1">
       <c r="B244" s="11"/>
+      <c r="D244" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="AA244" s="6" t="s">
         <v>367</v>
       </c>
@@ -4797,7 +5210,9 @@
       </c>
     </row>
     <row r="248" spans="1:32" ht="24" customHeight="1">
-      <c r="B248" s="11"/>
+      <c r="B248" s="11" t="s">
+        <v>371</v>
+      </c>
       <c r="AA248" s="6" t="s">
         <v>367</v>
       </c>
@@ -4841,7 +5256,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="253" spans="1:32" ht="178" customHeight="1">
+    <row r="253" spans="1:32" ht="177.95" customHeight="1">
       <c r="B253" s="11"/>
     </row>
     <row r="256" spans="1:32" ht="24" customHeight="1">
@@ -4882,7 +5297,9 @@
       </c>
     </row>
     <row r="262" spans="1:33" ht="24" customHeight="1">
-      <c r="B262" s="11"/>
+      <c r="B262" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA262" s="6" t="s">
         <v>246</v>
       </c>
@@ -4929,7 +5346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:33" ht="178" customHeight="1">
+    <row r="267" spans="1:33" ht="177.95" customHeight="1">
       <c r="B267" s="11"/>
     </row>
     <row r="270" spans="1:33" ht="24" customHeight="1">
@@ -4970,7 +5387,9 @@
       </c>
     </row>
     <row r="276" spans="1:33" ht="24" customHeight="1">
-      <c r="B276" s="11"/>
+      <c r="B276" s="11" t="s">
+        <v>246</v>
+      </c>
       <c r="AA276" s="6" t="s">
         <v>246</v>
       </c>
@@ -5013,7 +5432,9 @@
       </c>
     </row>
     <row r="280" spans="1:33" ht="24" customHeight="1">
-      <c r="B280" s="11"/>
+      <c r="B280" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:33" ht="24" customHeight="1">
       <c r="A282" s="9" t="s">
@@ -5039,7 +5460,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="285" spans="1:33" ht="178" customHeight="1">
+    <row r="285" spans="1:33" ht="177.95" customHeight="1">
       <c r="B285" s="11"/>
     </row>
     <row r="288" spans="1:33" ht="24" customHeight="1">
@@ -5080,7 +5501,9 @@
       </c>
     </row>
     <row r="294" spans="1:32" ht="24" customHeight="1">
-      <c r="B294" s="11"/>
+      <c r="B294" s="11" t="s">
+        <v>414</v>
+      </c>
       <c r="AA294" s="6" t="s">
         <v>413</v>
       </c>
@@ -5124,91 +5547,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="299" spans="1:32" ht="178" customHeight="1">
+    <row r="299" spans="1:32" ht="177.95" customHeight="1">
       <c r="B299" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="27">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B276 B262 B240 B218 B204 B182 B164 B150 B136 B122 B108 B90 B76 B62 B48 B34" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>AA20:AG20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>AA34:AG34</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48">
-      <formula1>AA48:AG48</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AG62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76">
-      <formula1>AA76:AG76</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B90">
-      <formula1>AA90:AG90</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>AA94:AE94</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B108">
-      <formula1>AA108:AG108</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B122">
-      <formula1>AA122:AG122</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B136">
-      <formula1>AA136:AG136</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B150">
-      <formula1>AA150:AG150</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B164">
-      <formula1>AA164:AG164</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B168 B280 B190 B186" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B182">
-      <formula1>AA182:AG182</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B186">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B190">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B204">
-      <formula1>AA204:AG204</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B218">
-      <formula1>AA218:AG218</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B222 B294 B248 B244 B226" xr:uid="{00000000-0002-0000-0300-000012000000}">
       <formula1>AA222:AF222</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B226">
-      <formula1>AA226:AF226</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B240">
-      <formula1>AA240:AG240</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B244">
-      <formula1>AA244:AF244</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B248">
-      <formula1>AA248:AF248</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B262">
-      <formula1>AA262:AG262</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B276">
-      <formula1>AA276:AG276</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B280">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B294">
-      <formula1>AA294:AF294</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
